--- a/results_exact/30_transbordo_porto.xlsx
+++ b/results_exact/30_transbordo_porto.xlsx
@@ -444,29 +444,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1502889.23666301</v>
+        <v>178404.652</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,20 +485,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93377.25933698905</v>
+        <v>465403.44</v>
       </c>
       <c r="C3" t="n">
-        <v>85027.39266301098</v>
+        <v>29406.77825137008</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1628912.04</v>
       </c>
     </row>
     <row r="4">
@@ -508,29 +508,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232401.8126630101</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>296372.2937486295</v>
       </c>
       <c r="D4" t="n">
-        <v>31326.80333698983</v>
+        <v>432759.7622513705</v>
       </c>
       <c r="E4" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2831204.26</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -542,17 +542,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2831204.26</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294755.512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>256407932.6670762</v>
+        <v>14994911.0006</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -653,30 +653,30 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15931094.2154837</v>
+        <v>51664435.8744</v>
       </c>
       <c r="B3" t="n">
-        <v>9942253.024085874</v>
+        <v>4576870.967043239</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>178659072.5472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39650073.25843615</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>43664530.03798559</v>
       </c>
       <c r="C4" t="n">
-        <v>5344665.917323836</v>
+        <v>56674218.46443948</v>
       </c>
       <c r="D4" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>331052714.1218</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>265623583.6732</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11072803.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50288237.90232001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>40764067077.40015</v>
+        <v>3328602635.1552</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -792,30 +792,30 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2589075004.727069</v>
+        <v>12827612504.484</v>
       </c>
       <c r="B3" t="n">
-        <v>1586407081.349394</v>
+        <v>1243948477.658071</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44182284390.552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9193309072.997074</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11723841849.09541</v>
       </c>
       <c r="C4" t="n">
-        <v>935650165.9872102</v>
+        <v>14779057467.91312</v>
       </c>
       <c r="D4" t="n">
-        <v>14104493382.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>61963028633.295</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61963028633.295</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2129234825.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9313616874.408241</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1414733769.006296</v>
+        <v>1242716706.325244</v>
       </c>
       <c r="B2" t="n">
-        <v>152071497778212.8</v>
+        <v>145997416749338</v>
       </c>
     </row>
   </sheetData>
